--- a/output/SterilGARD_SGX04_All_Models_Extracted_Data.xlsx
+++ b/output/SterilGARD_SGX04_All_Models_Extracted_Data.xlsx
@@ -771,7 +771,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>SterilGARD-SGX04-Product-Specifications-RevE.pdf</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
@@ -912,7 +916,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>SterilGARD-SGX04-Product-Specifications-RevE.pdf</t>
+        </is>
+      </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
@@ -1053,7 +1061,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>SterilGARD-SGX04-Product-Specifications-RevE.pdf</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>

--- a/output/SterilGARD_SGX04_All_Models_Extracted_Data.xlsx
+++ b/output/SterilGARD_SGX04_All_Models_Extracted_Data.xlsx
@@ -782,7 +782,11 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>output/SterilGARD/prod_img.jpeg</t>
+        </is>
+      </c>
       <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -927,7 +931,11 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>output/SterilGARD/prod_img.jpeg</t>
+        </is>
+      </c>
       <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1072,7 +1080,11 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>output/SterilGARD/prod_img.jpeg</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr"/>
     </row>
   </sheetData>
